--- a/data/trans_dic/P69$dolorEspalda-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorEspalda-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7404555966751045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7649063521645894</v>
+        <v>0.7649063521645895</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8009398488878248</v>
@@ -697,7 +697,7 @@
         <v>0.7790469626180063</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7815776091200136</v>
+        <v>0.7815776091200138</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6612490462806552</v>
+        <v>0.6819134220964107</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6293895291170603</v>
+        <v>0.6361672578046865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5950370812798632</v>
+        <v>0.6056365368254616</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6412976857584626</v>
+        <v>0.6461683070283729</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6263117854091209</v>
+        <v>0.6408631188965749</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.722004417548834</v>
+        <v>0.721545985656759</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7081198207418675</v>
+        <v>0.6796264963696755</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7060468651703744</v>
+        <v>0.7083314816801367</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6897981512489365</v>
+        <v>0.7052389495494602</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6871124303663075</v>
+        <v>0.6851308000665625</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6628397405080744</v>
+        <v>0.6666938344333693</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.70496242225508</v>
+        <v>0.7018136696849054</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8531405163545572</v>
+        <v>0.8581783779029604</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8232307315846427</v>
+        <v>0.8228437822433948</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8472805805384444</v>
+        <v>0.856039568684915</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8627420047387673</v>
+        <v>0.8682220971744676</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9125372630568818</v>
+        <v>0.9159759583729183</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9699352192940578</v>
+        <v>0.9670363627068452</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9429043319835657</v>
+        <v>0.9426075870795891</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8844386751796303</v>
+        <v>0.8868549360673826</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8540786961715567</v>
+        <v>0.8527150147465936</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8504950520410137</v>
+        <v>0.8500599071122901</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8570650735759516</v>
+        <v>0.8599709038472538</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.845894897245449</v>
+        <v>0.8459260654944761</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7454408340210835</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7448924210958976</v>
+        <v>0.7448924210958979</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7677279898425803</v>
@@ -833,7 +833,7 @@
         <v>0.8050308746558977</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.7670920242985013</v>
+        <v>0.7670920242985014</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6284906593378747</v>
+        <v>0.6339103630970216</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6599100710242795</v>
+        <v>0.6560310098015077</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6366482198280538</v>
+        <v>0.6362283192548631</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6615951937608233</v>
+        <v>0.6573268853662092</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.641129300597882</v>
+        <v>0.644003223400458</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6768960020519265</v>
+        <v>0.6724291098231043</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7747832014122721</v>
+        <v>0.7942886133480562</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7226603361388028</v>
+        <v>0.7184726801554395</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6589084776300561</v>
+        <v>0.6565746296503265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7090109906274669</v>
+        <v>0.6994711986078711</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7315226094564964</v>
+        <v>0.7288673638967493</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7034852347566841</v>
+        <v>0.7132440586072338</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7805442325148579</v>
+        <v>0.7792074022591213</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8399370568623962</v>
+        <v>0.8442984324198196</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8333538577499192</v>
+        <v>0.8279153535757841</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8270515909286735</v>
+        <v>0.8189398615674848</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8663669931581932</v>
+        <v>0.8671485594408768</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8953515885232274</v>
+        <v>0.890902324965131</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9702593259576797</v>
+        <v>0.9716175957399145</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8615333148598626</v>
+        <v>0.8521086419826847</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7890182985973937</v>
+        <v>0.7886536106629296</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8431936024845444</v>
+        <v>0.8402345780987334</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.867571808961746</v>
+        <v>0.8653644791358185</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8107776413457581</v>
+        <v>0.8239127076964902</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.859085585398959</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7396855686822483</v>
+        <v>0.7396855686822484</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7999097889865681</v>
@@ -969,7 +969,7 @@
         <v>0.8238606036479773</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7680190333949218</v>
+        <v>0.7680190333949217</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6748265837488439</v>
+        <v>0.6801834924927125</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6236536331486789</v>
+        <v>0.6269564450916433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7101066906104049</v>
+        <v>0.7118707383385852</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6712879797352386</v>
+        <v>0.6715311454203604</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.722171685368228</v>
+        <v>0.7254469415014724</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6020302655137231</v>
+        <v>0.6028972529742235</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7535913783743849</v>
+        <v>0.7607308497433009</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6306473759296716</v>
+        <v>0.6254237803617836</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7248516235335465</v>
+        <v>0.7227875855946754</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6466862462042841</v>
+        <v>0.6404924538821909</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7596270150353523</v>
+        <v>0.763493498873614</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6825577629527197</v>
+        <v>0.693031830174585</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.844536577119563</v>
+        <v>0.8527596386240827</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8259430261752715</v>
+        <v>0.8344157742798402</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8697989085878636</v>
+        <v>0.8730180948872674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8937882776372938</v>
+        <v>0.8966150265453641</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9369325290405477</v>
+        <v>0.9392716567904348</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8523052334828711</v>
+        <v>0.851448613699241</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9342955545299906</v>
+        <v>0.9350992851196172</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8263471650656911</v>
+        <v>0.8293311415820817</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8574382339605877</v>
+        <v>0.8573907387421315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8145489471485379</v>
+        <v>0.8051172964157171</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.879502037021327</v>
+        <v>0.8803371831662895</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8378802529240759</v>
+        <v>0.834532684464614</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.6801044955202536</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7100447710416991</v>
+        <v>0.7100447710416993</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7380729100632573</v>
@@ -1093,7 +1093,7 @@
         <v>0.7907230333787926</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.7641208264486592</v>
+        <v>0.7641208264486591</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7500100759568872</v>
@@ -1105,7 +1105,7 @@
         <v>0.7277084928040549</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7369608390277396</v>
+        <v>0.7369608390277397</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6756372737995285</v>
+        <v>0.6781170224756546</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6289820562995353</v>
+        <v>0.6360702237095482</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5729645981422378</v>
+        <v>0.568263917979857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.613151650143397</v>
+        <v>0.5988510757974481</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6358738633237124</v>
+        <v>0.6294565520892025</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6048451243109523</v>
+        <v>0.606854345220563</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6680673484517761</v>
+        <v>0.6674460542370114</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6840582864490237</v>
+        <v>0.6776824878168924</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6900469734217383</v>
+        <v>0.6826606928813581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6484346195359169</v>
+        <v>0.6611024697700119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6468160142747552</v>
+        <v>0.6437665935425456</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6746489273981477</v>
+        <v>0.6797000589045503</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.825601761530527</v>
+        <v>0.8249783942196642</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8250411742540432</v>
+        <v>0.8361971140630855</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7780639484066968</v>
+        <v>0.7767541957872007</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7947424317074048</v>
+        <v>0.782697859191603</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8298460861388006</v>
+        <v>0.8267090687881778</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.842392621632263</v>
+        <v>0.8422196692105365</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8788743345092396</v>
+        <v>0.8781500436292364</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8346485018496822</v>
+        <v>0.8303897869591366</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8060525384985338</v>
+        <v>0.797408547685056</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8021009249809332</v>
+        <v>0.8098239149648123</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8005623824462759</v>
+        <v>0.7885381728631294</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7935378582824096</v>
+        <v>0.7965853129352235</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.7859710900044131</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7611202636332354</v>
+        <v>0.7611202636332353</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7112782480957366</v>
+        <v>0.7072429394357618</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6967124577993591</v>
+        <v>0.6897429934117537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7007093309738359</v>
+        <v>0.6975274579150679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6991260945850604</v>
+        <v>0.7005325011712995</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7254192725872813</v>
+        <v>0.7177327577425068</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7172322483835627</v>
+        <v>0.7196885891690772</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7960905089015456</v>
+        <v>0.7980931011079589</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.730872359977396</v>
+        <v>0.7350602030757026</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.72400084746952</v>
+        <v>0.7261050829676298</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7175929406656062</v>
+        <v>0.7149433259374028</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.748600155604299</v>
+        <v>0.748081232797209</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7282770644962686</v>
+        <v>0.7270544436719366</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7892653238315847</v>
+        <v>0.7868738769702831</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7919651429717014</v>
+        <v>0.7872585153202986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7985646505335078</v>
+        <v>0.7962445682660476</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7952161142674987</v>
+        <v>0.7968938379677877</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8283479674172423</v>
+        <v>0.8338607545681462</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8312998425582269</v>
+        <v>0.8384756549216308</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8966126212754721</v>
+        <v>0.8950642832091905</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8165005038636576</v>
+        <v>0.8153312131995183</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7912102802791806</v>
+        <v>0.7899833629964365</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7950171336333004</v>
+        <v>0.7947547886269387</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8186465252177267</v>
+        <v>0.8191199661963452</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7925580916190705</v>
+        <v>0.7900894126407971</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>52458</v>
+        <v>54097</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>48868</v>
+        <v>49394</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31970</v>
+        <v>32539</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>48126</v>
+        <v>48491</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20193</v>
+        <v>20662</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>25454</v>
+        <v>25437</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>21183</v>
+        <v>20331</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>42236</v>
+        <v>42373</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>76962</v>
+        <v>78685</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>77574</v>
+        <v>77350</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>55441</v>
+        <v>55764</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>95075</v>
+        <v>94650</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>67680</v>
+        <v>68080</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>63918</v>
+        <v>63888</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45522</v>
+        <v>45992</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>64744</v>
+        <v>65155</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>29421</v>
+        <v>29532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>34194</v>
+        <v>34092</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28207</v>
+        <v>28198</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>52908</v>
+        <v>53053</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>95291</v>
+        <v>95139</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>96019</v>
+        <v>95970</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>71687</v>
+        <v>71930</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>114082</v>
+        <v>114086</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>91748</v>
+        <v>92539</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>61339</v>
+        <v>60979</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>61745</v>
+        <v>61704</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>87512</v>
+        <v>86947</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>33850</v>
+        <v>34001</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>41515</v>
+        <v>41241</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>43041</v>
+        <v>44124</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>76621</v>
+        <v>76177</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>130976</v>
+        <v>130512</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>109388</v>
+        <v>107916</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>111583</v>
+        <v>111178</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>167641</v>
+        <v>169966</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>113945</v>
+        <v>113749</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>78073</v>
+        <v>78478</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>80822</v>
+        <v>80295</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>109397</v>
+        <v>108324</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>45742</v>
+        <v>45783</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>54913</v>
+        <v>54640</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>53900</v>
+        <v>53975</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>91345</v>
+        <v>90346</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>156839</v>
+        <v>156766</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>130090</v>
+        <v>129633</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>132335</v>
+        <v>131998</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>193208</v>
+        <v>196338</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>74193</v>
+        <v>74782</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>49616</v>
+        <v>49879</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>78066</v>
+        <v>78260</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>45171</v>
+        <v>45187</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33605</v>
+        <v>33757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31895</v>
+        <v>31941</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>48793</v>
+        <v>49255</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>44595</v>
+        <v>44226</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>113423</v>
+        <v>113100</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>85709</v>
+        <v>84888</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>132693</v>
+        <v>133369</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>94194</v>
+        <v>95640</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>92852</v>
+        <v>93756</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65710</v>
+        <v>66384</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>95621</v>
+        <v>95975</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60143</v>
+        <v>60333</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>43598</v>
+        <v>43707</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45154</v>
+        <v>45109</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>60493</v>
+        <v>60545</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>58433</v>
+        <v>58644</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>134169</v>
+        <v>134162</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>107957</v>
+        <v>106707</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>153633</v>
+        <v>153779</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>115629</v>
+        <v>115167</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>92041</v>
+        <v>92379</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>48684</v>
+        <v>49233</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>50121</v>
+        <v>49709</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>65444</v>
+        <v>63918</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>56307</v>
+        <v>55739</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>38768</v>
+        <v>38897</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>44148</v>
+        <v>44107</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>72356</v>
+        <v>71682</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>155108</v>
+        <v>153448</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>91753</v>
+        <v>93545</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>99324</v>
+        <v>98856</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>143369</v>
+        <v>144442</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>112470</v>
+        <v>112385</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>63860</v>
+        <v>64723</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>68062</v>
+        <v>67947</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>84826</v>
+        <v>83540</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>73484</v>
+        <v>73206</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>53994</v>
+        <v>53983</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>58079</v>
+        <v>58031</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>88285</v>
+        <v>87834</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>181184</v>
+        <v>179241</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>113496</v>
+        <v>114589</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>122934</v>
+        <v>121087</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>168634</v>
+        <v>169282</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>335356</v>
+        <v>333454</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>228211</v>
+        <v>225928</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>243932</v>
+        <v>242825</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>266606</v>
+        <v>267142</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>159680</v>
+        <v>157988</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>153245</v>
+        <v>153769</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>172193</v>
+        <v>172626</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>250203</v>
+        <v>251637</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>500723</v>
+        <v>502178</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>388371</v>
+        <v>386937</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>422524</v>
+        <v>422231</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>527037</v>
+        <v>526152</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>372126</v>
+        <v>370998</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>259411</v>
+        <v>257870</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>277998</v>
+        <v>277190</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>303249</v>
+        <v>303889</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>182337</v>
+        <v>183550</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>177616</v>
+        <v>179150</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>193936</v>
+        <v>193601</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>279517</v>
+        <v>279116</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>547205</v>
+        <v>546356</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>430274</v>
+        <v>430132</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>462060</v>
+        <v>462327</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>573555</v>
+        <v>571769</v>
       </c>
     </row>
     <row r="24">
